--- a/0222_0228/JaredKeefer.xlsx
+++ b/0222_0228/JaredKeefer.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\Classes\Capstone\Project\GitRepo\bison-timesheets\0222_0228\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46C470DA-036E-4B85-8A78-994D79768181}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92659071-7BD5-4C8E-B52F-8989F4D99201}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4875" yWindow="1950" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5220" yWindow="2295" windowWidth="21600" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -503,7 +503,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,25 +573,25 @@
         <v>2</v>
       </c>
       <c r="B5" s="12">
-        <v>44094</v>
+        <v>44249</v>
       </c>
       <c r="C5" s="12">
-        <v>44095</v>
+        <v>44250</v>
       </c>
       <c r="D5" s="12">
-        <v>44096</v>
+        <v>44251</v>
       </c>
       <c r="E5" s="12">
-        <v>44097</v>
+        <v>44252</v>
       </c>
       <c r="F5" s="12">
-        <v>44098</v>
+        <v>44253</v>
       </c>
       <c r="G5" s="12">
-        <v>44099</v>
+        <v>44254</v>
       </c>
       <c r="H5" s="13">
-        <v>44100</v>
+        <v>44255</v>
       </c>
       <c r="I5" s="14" t="s">
         <v>5</v>
